--- a/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW6.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW6.xlsx
@@ -559,37 +559,37 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>1.944785836296918</v>
+        <v>0.0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.6963271240235982</v>
+        <v>0.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.7527656130350844</v>
+        <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.5206027191874698</v>
+        <v>0.0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.8274080920711513</v>
+        <v>0.0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.8030466265518603</v>
+        <v>0.0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.944785836296918</v>
+        <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.6963271240235982</v>
+        <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.7527656130350844</v>
+        <v>0.0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.5206027191874698</v>
+        <v>0.0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.8274080920711513</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -4207,37 +4207,37 @@
         <v>108.0</v>
       </c>
       <c r="B109" t="n">
-        <v>2.9926199721898588</v>
+        <v>0.0</v>
       </c>
       <c r="C109" t="n">
-        <v>2.622448878425909</v>
+        <v>0.0</v>
       </c>
       <c r="D109" t="n">
-        <v>3.1359718792392064</v>
+        <v>0.0</v>
       </c>
       <c r="E109" t="n">
-        <v>2.9788953403946707</v>
+        <v>0.0</v>
       </c>
       <c r="F109" t="n">
-        <v>2.9771147682043595</v>
+        <v>0.0</v>
       </c>
       <c r="G109" t="n">
-        <v>2.669562773119395</v>
+        <v>0.0</v>
       </c>
       <c r="H109" t="n">
-        <v>2.9926199721898588</v>
+        <v>0.0</v>
       </c>
       <c r="I109" t="n">
-        <v>2.622448878425909</v>
+        <v>0.0</v>
       </c>
       <c r="J109" t="n">
-        <v>3.1359718792392064</v>
+        <v>0.0</v>
       </c>
       <c r="K109" t="n">
-        <v>2.9788953403946707</v>
+        <v>0.0</v>
       </c>
       <c r="L109" t="n">
-        <v>2.9771147682043595</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="110">
@@ -6601,37 +6601,37 @@
         <v>171.0</v>
       </c>
       <c r="B172" t="n">
-        <v>0.41508206045205365</v>
+        <v>0.0</v>
       </c>
       <c r="C172" t="n">
-        <v>0.34363791615912126</v>
+        <v>0.0</v>
       </c>
       <c r="D172" t="n">
-        <v>0.40185985806568786</v>
+        <v>0.0</v>
       </c>
       <c r="E172" t="n">
-        <v>0.41163101797193463</v>
+        <v>0.0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.40570826907908886</v>
+        <v>0.0</v>
       </c>
       <c r="G172" t="n">
-        <v>0.36681856671172786</v>
+        <v>0.0</v>
       </c>
       <c r="H172" t="n">
-        <v>0.41508206045205365</v>
+        <v>0.0</v>
       </c>
       <c r="I172" t="n">
-        <v>0.34363791615912126</v>
+        <v>0.0</v>
       </c>
       <c r="J172" t="n">
-        <v>0.40185985806568786</v>
+        <v>0.0</v>
       </c>
       <c r="K172" t="n">
-        <v>0.41163101797193463</v>
+        <v>0.0</v>
       </c>
       <c r="L172" t="n">
-        <v>0.40570826907908886</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="173">
@@ -7969,37 +7969,37 @@
         <v>207.0</v>
       </c>
       <c r="B208" t="n">
-        <v>1.1010607862915147</v>
+        <v>0.0</v>
       </c>
       <c r="C208" t="n">
-        <v>1.2777697957768346</v>
+        <v>0.0</v>
       </c>
       <c r="D208" t="n">
-        <v>1.0991780328354743</v>
+        <v>0.0</v>
       </c>
       <c r="E208" t="n">
-        <v>1.2708629318009754</v>
+        <v>0.0</v>
       </c>
       <c r="F208" t="n">
-        <v>1.2624769132542553</v>
+        <v>0.0</v>
       </c>
       <c r="G208" t="n">
-        <v>1.2172059076267112</v>
+        <v>0.0</v>
       </c>
       <c r="H208" t="n">
-        <v>1.1010607862915147</v>
+        <v>0.0</v>
       </c>
       <c r="I208" t="n">
-        <v>1.2777697957768346</v>
+        <v>0.0</v>
       </c>
       <c r="J208" t="n">
-        <v>1.0991780328354743</v>
+        <v>0.0</v>
       </c>
       <c r="K208" t="n">
-        <v>1.2708629318009754</v>
+        <v>0.0</v>
       </c>
       <c r="L208" t="n">
-        <v>1.2624769132542553</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="209">
@@ -8197,37 +8197,37 @@
         <v>213.0</v>
       </c>
       <c r="B214" t="n">
-        <v>0.7052645199145542</v>
+        <v>0.0</v>
       </c>
       <c r="C214" t="n">
-        <v>0.8184522714818365</v>
+        <v>0.0</v>
       </c>
       <c r="D214" t="n">
-        <v>0.7040585563303238</v>
+        <v>0.0</v>
       </c>
       <c r="E214" t="n">
-        <v>0.8140282050118499</v>
+        <v>0.0</v>
       </c>
       <c r="F214" t="n">
-        <v>0.8086566929046326</v>
+        <v>0.0</v>
       </c>
       <c r="G214" t="n">
-        <v>0.779659171198773</v>
+        <v>0.0</v>
       </c>
       <c r="H214" t="n">
-        <v>0.7052645199145542</v>
+        <v>0.0</v>
       </c>
       <c r="I214" t="n">
-        <v>0.8184522714818365</v>
+        <v>0.0</v>
       </c>
       <c r="J214" t="n">
-        <v>0.7040585563303238</v>
+        <v>0.0</v>
       </c>
       <c r="K214" t="n">
-        <v>0.8140282050118499</v>
+        <v>0.0</v>
       </c>
       <c r="L214" t="n">
-        <v>0.8086566929046326</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="215">
@@ -8387,37 +8387,37 @@
         <v>218.0</v>
       </c>
       <c r="B219" t="n">
-        <v>1.4386948313435235</v>
+        <v>0.0</v>
       </c>
       <c r="C219" t="n">
-        <v>1.6695906563184888</v>
+        <v>0.0</v>
       </c>
       <c r="D219" t="n">
-        <v>1.4362347422189052</v>
+        <v>0.0</v>
       </c>
       <c r="E219" t="n">
-        <v>1.6605658416792084</v>
+        <v>0.0</v>
       </c>
       <c r="F219" t="n">
-        <v>1.6496082981094724</v>
+        <v>0.0</v>
       </c>
       <c r="G219" t="n">
-        <v>1.5904551953771158</v>
+        <v>0.0</v>
       </c>
       <c r="H219" t="n">
-        <v>1.4386948313435235</v>
+        <v>0.0</v>
       </c>
       <c r="I219" t="n">
-        <v>1.6695906563184888</v>
+        <v>0.0</v>
       </c>
       <c r="J219" t="n">
-        <v>1.4362347422189052</v>
+        <v>0.0</v>
       </c>
       <c r="K219" t="n">
-        <v>1.6605658416792084</v>
+        <v>0.0</v>
       </c>
       <c r="L219" t="n">
-        <v>1.6496082981094724</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="220">
@@ -9185,37 +9185,37 @@
         <v>239.0</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.4989765301150585</v>
+        <v>-0.0</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.4960374037992471</v>
+        <v>-0.0</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.44625437506141863</v>
+        <v>-0.0</v>
       </c>
       <c r="E240" t="n">
-        <v>-0.4374906185913462</v>
+        <v>-0.0</v>
       </c>
       <c r="F240" t="n">
-        <v>-0.5059820426480235</v>
+        <v>-0.0</v>
       </c>
       <c r="G240" t="n">
-        <v>-0.4925368598460281</v>
+        <v>-0.0</v>
       </c>
       <c r="H240" t="n">
-        <v>-0.4989765301150585</v>
+        <v>-0.0</v>
       </c>
       <c r="I240" t="n">
-        <v>-0.4960374037992471</v>
+        <v>-0.0</v>
       </c>
       <c r="J240" t="n">
-        <v>-0.44625437506141863</v>
+        <v>-0.0</v>
       </c>
       <c r="K240" t="n">
-        <v>-0.4374906185913462</v>
+        <v>-0.0</v>
       </c>
       <c r="L240" t="n">
-        <v>-0.5059820426480235</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="241">
@@ -9223,37 +9223,37 @@
         <v>240.0</v>
       </c>
       <c r="B241" t="n">
-        <v>0.2443441771181987</v>
+        <v>0.0</v>
       </c>
       <c r="C241" t="n">
-        <v>0.24290491423159002</v>
+        <v>0.0</v>
       </c>
       <c r="D241" t="n">
-        <v>0.21852662696306577</v>
+        <v>0.0</v>
       </c>
       <c r="E241" t="n">
-        <v>0.2142350967328757</v>
+        <v>0.0</v>
       </c>
       <c r="F241" t="n">
-        <v>0.24777471160599085</v>
+        <v>0.0</v>
       </c>
       <c r="G241" t="n">
-        <v>0.24119073033697247</v>
+        <v>0.0</v>
       </c>
       <c r="H241" t="n">
-        <v>0.2443441771181987</v>
+        <v>0.0</v>
       </c>
       <c r="I241" t="n">
-        <v>0.24290491423159002</v>
+        <v>0.0</v>
       </c>
       <c r="J241" t="n">
-        <v>0.21852662696306577</v>
+        <v>0.0</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2142350967328757</v>
+        <v>0.0</v>
       </c>
       <c r="L241" t="n">
-        <v>0.24777471160599085</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="242">
@@ -9375,37 +9375,37 @@
         <v>244.0</v>
       </c>
       <c r="B245" t="n">
-        <v>1.526957435368858</v>
+        <v>0.0</v>
       </c>
       <c r="C245" t="n">
-        <v>1.5179631831133829</v>
+        <v>0.0</v>
       </c>
       <c r="D245" t="n">
-        <v>1.3656182103570889</v>
+        <v>0.0</v>
       </c>
       <c r="E245" t="n">
-        <v>1.3387995479629813</v>
+        <v>0.0</v>
       </c>
       <c r="F245" t="n">
-        <v>1.5483955568137966</v>
+        <v>0.0</v>
       </c>
       <c r="G245" t="n">
-        <v>1.5072508924652221</v>
+        <v>0.0</v>
       </c>
       <c r="H245" t="n">
-        <v>1.526957435368858</v>
+        <v>0.0</v>
       </c>
       <c r="I245" t="n">
-        <v>1.5179631831133829</v>
+        <v>0.0</v>
       </c>
       <c r="J245" t="n">
-        <v>1.3656182103570889</v>
+        <v>0.0</v>
       </c>
       <c r="K245" t="n">
-        <v>1.3387995479629813</v>
+        <v>0.0</v>
       </c>
       <c r="L245" t="n">
-        <v>1.5483955568137966</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="246">
@@ -9565,37 +9565,37 @@
         <v>249.0</v>
       </c>
       <c r="B250" t="n">
-        <v>1.5123618541631667</v>
+        <v>0.0</v>
       </c>
       <c r="C250" t="n">
-        <v>1.5034535744018414</v>
+        <v>0.0</v>
       </c>
       <c r="D250" t="n">
-        <v>1.352564806887186</v>
+        <v>0.0</v>
       </c>
       <c r="E250" t="n">
-        <v>1.3260024934624306</v>
+        <v>0.0</v>
       </c>
       <c r="F250" t="n">
-        <v>1.533595057098133</v>
+        <v>0.0</v>
       </c>
       <c r="G250" t="n">
-        <v>1.4928436782962087</v>
+        <v>0.0</v>
       </c>
       <c r="H250" t="n">
-        <v>1.5123618541631667</v>
+        <v>0.0</v>
       </c>
       <c r="I250" t="n">
-        <v>1.5034535744018414</v>
+        <v>0.0</v>
       </c>
       <c r="J250" t="n">
-        <v>1.352564806887186</v>
+        <v>0.0</v>
       </c>
       <c r="K250" t="n">
-        <v>1.3260024934624306</v>
+        <v>0.0</v>
       </c>
       <c r="L250" t="n">
-        <v>1.533595057098133</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="251">
@@ -10173,37 +10173,37 @@
         <v>265.0</v>
       </c>
       <c r="B266" t="n">
-        <v>2.6607695649312317</v>
+        <v>0.0</v>
       </c>
       <c r="C266" t="n">
-        <v>3.0638657411284673</v>
+        <v>0.0</v>
       </c>
       <c r="D266" t="n">
-        <v>3.064164036209363</v>
+        <v>0.0</v>
       </c>
       <c r="E266" t="n">
-        <v>3.0253461643000636</v>
+        <v>0.0</v>
       </c>
       <c r="F266" t="n">
-        <v>3.130430175077723</v>
+        <v>0.0</v>
       </c>
       <c r="G266" t="n">
-        <v>2.6266265671039313</v>
+        <v>0.0</v>
       </c>
       <c r="H266" t="n">
-        <v>2.6607695649312317</v>
+        <v>0.0</v>
       </c>
       <c r="I266" t="n">
-        <v>3.0638657411284673</v>
+        <v>0.0</v>
       </c>
       <c r="J266" t="n">
-        <v>3.064164036209363</v>
+        <v>0.0</v>
       </c>
       <c r="K266" t="n">
-        <v>3.0253461643000636</v>
+        <v>0.0</v>
       </c>
       <c r="L266" t="n">
-        <v>3.130430175077723</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="267">
@@ -10553,37 +10553,37 @@
         <v>275.0</v>
       </c>
       <c r="B276" t="n">
-        <v>0.829624830247281</v>
+        <v>0.0</v>
       </c>
       <c r="C276" t="n">
-        <v>0.8449556683157681</v>
+        <v>0.0</v>
       </c>
       <c r="D276" t="n">
-        <v>0.8473418593891878</v>
+        <v>0.0</v>
       </c>
       <c r="E276" t="n">
-        <v>0.8065447321778102</v>
+        <v>0.0</v>
       </c>
       <c r="F276" t="n">
-        <v>0.8450737473204457</v>
+        <v>0.0</v>
       </c>
       <c r="G276" t="n">
-        <v>0.7128102839221298</v>
+        <v>0.0</v>
       </c>
       <c r="H276" t="n">
-        <v>0.829624830247281</v>
+        <v>0.0</v>
       </c>
       <c r="I276" t="n">
-        <v>0.8449556683157681</v>
+        <v>0.0</v>
       </c>
       <c r="J276" t="n">
-        <v>0.8473418593891878</v>
+        <v>0.0</v>
       </c>
       <c r="K276" t="n">
-        <v>0.8065447321778102</v>
+        <v>0.0</v>
       </c>
       <c r="L276" t="n">
-        <v>0.8450737473204457</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="277">
@@ -14505,37 +14505,37 @@
         <v>379.0</v>
       </c>
       <c r="B380" t="n">
-        <v>0.7877907860180786</v>
+        <v>0.0</v>
       </c>
       <c r="C380" t="n">
-        <v>0.6803343136648586</v>
+        <v>0.0</v>
       </c>
       <c r="D380" t="n">
-        <v>0.7863007288908832</v>
+        <v>0.0</v>
       </c>
       <c r="E380" t="n">
-        <v>0.7356740953930855</v>
+        <v>0.0</v>
       </c>
       <c r="F380" t="n">
-        <v>0.6850554828416862</v>
+        <v>0.0</v>
       </c>
       <c r="G380" t="n">
-        <v>0.7787571333925044</v>
+        <v>0.0</v>
       </c>
       <c r="H380" t="n">
-        <v>0.7877907860180786</v>
+        <v>0.0</v>
       </c>
       <c r="I380" t="n">
-        <v>0.6803343136648586</v>
+        <v>0.0</v>
       </c>
       <c r="J380" t="n">
-        <v>0.7863007288908832</v>
+        <v>0.0</v>
       </c>
       <c r="K380" t="n">
-        <v>0.7356740953930855</v>
+        <v>0.0</v>
       </c>
       <c r="L380" t="n">
-        <v>0.6850554828416862</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="381">
@@ -14733,37 +14733,37 @@
         <v>385.0</v>
       </c>
       <c r="B386" t="n">
-        <v>1.2243248335146213</v>
+        <v>0.0</v>
       </c>
       <c r="C386" t="n">
-        <v>1.3915978615608684</v>
+        <v>0.0</v>
       </c>
       <c r="D386" t="n">
-        <v>1.3775162159303553</v>
+        <v>0.0</v>
       </c>
       <c r="E386" t="n">
-        <v>1.3973961296013317</v>
+        <v>0.0</v>
       </c>
       <c r="F386" t="n">
-        <v>1.3612617531731448</v>
+        <v>0.0</v>
       </c>
       <c r="G386" t="n">
-        <v>1.4105331580862133</v>
+        <v>0.0</v>
       </c>
       <c r="H386" t="n">
-        <v>1.2243248335146213</v>
+        <v>0.0</v>
       </c>
       <c r="I386" t="n">
-        <v>1.3915978615608684</v>
+        <v>0.0</v>
       </c>
       <c r="J386" t="n">
-        <v>1.3775162159303553</v>
+        <v>0.0</v>
       </c>
       <c r="K386" t="n">
-        <v>1.3973961296013317</v>
+        <v>0.0</v>
       </c>
       <c r="L386" t="n">
-        <v>1.3612617531731448</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="387">
@@ -15265,37 +15265,37 @@
         <v>399.0</v>
       </c>
       <c r="B400" t="n">
-        <v>1.606893646209491</v>
+        <v>0.0</v>
       </c>
       <c r="C400" t="n">
-        <v>1.7355276852395423</v>
+        <v>0.0</v>
       </c>
       <c r="D400" t="n">
-        <v>1.508987136731358</v>
+        <v>0.0</v>
       </c>
       <c r="E400" t="n">
-        <v>1.4562473675166192</v>
+        <v>0.0</v>
       </c>
       <c r="F400" t="n">
-        <v>1.8084736495228202</v>
+        <v>0.0</v>
       </c>
       <c r="G400" t="n">
-        <v>1.6534565030990944</v>
+        <v>0.0</v>
       </c>
       <c r="H400" t="n">
-        <v>1.606893646209491</v>
+        <v>0.0</v>
       </c>
       <c r="I400" t="n">
-        <v>1.7355276852395423</v>
+        <v>0.0</v>
       </c>
       <c r="J400" t="n">
-        <v>1.508987136731358</v>
+        <v>0.0</v>
       </c>
       <c r="K400" t="n">
-        <v>1.4562473675166192</v>
+        <v>0.0</v>
       </c>
       <c r="L400" t="n">
-        <v>1.8084736495228202</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="401">
@@ -16329,37 +16329,37 @@
         <v>427.0</v>
       </c>
       <c r="B428" t="n">
-        <v>2.0124851783527684</v>
+        <v>0.0</v>
       </c>
       <c r="C428" t="n">
-        <v>2.0977126077408976</v>
+        <v>0.0</v>
       </c>
       <c r="D428" t="n">
-        <v>1.7481440097597452</v>
+        <v>0.0</v>
       </c>
       <c r="E428" t="n">
-        <v>2.094811287461328</v>
+        <v>0.0</v>
       </c>
       <c r="F428" t="n">
-        <v>1.7364854805631489</v>
+        <v>0.0</v>
       </c>
       <c r="G428" t="n">
-        <v>1.7593474121477066</v>
+        <v>0.0</v>
       </c>
       <c r="H428" t="n">
-        <v>2.0124851783527684</v>
+        <v>0.0</v>
       </c>
       <c r="I428" t="n">
-        <v>2.0977126077408976</v>
+        <v>0.0</v>
       </c>
       <c r="J428" t="n">
-        <v>1.7481440097597452</v>
+        <v>0.0</v>
       </c>
       <c r="K428" t="n">
-        <v>2.094811287461328</v>
+        <v>0.0</v>
       </c>
       <c r="L428" t="n">
-        <v>1.7364854805631489</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="429">
@@ -18419,37 +18419,37 @@
         <v>482.0</v>
       </c>
       <c r="B483" t="n">
-        <v>0.7435646105106102</v>
+        <v>0.0</v>
       </c>
       <c r="C483" t="n">
-        <v>0.8295650078510673</v>
+        <v>0.0</v>
       </c>
       <c r="D483" t="n">
-        <v>0.7588978926780446</v>
+        <v>0.0</v>
       </c>
       <c r="E483" t="n">
-        <v>0.6633916822757774</v>
+        <v>0.0</v>
       </c>
       <c r="F483" t="n">
-        <v>0.6920324451822764</v>
+        <v>0.0</v>
       </c>
       <c r="G483" t="n">
-        <v>0.798542285889334</v>
+        <v>0.0</v>
       </c>
       <c r="H483" t="n">
-        <v>0.7435646105106102</v>
+        <v>0.0</v>
       </c>
       <c r="I483" t="n">
-        <v>0.8295650078510673</v>
+        <v>0.0</v>
       </c>
       <c r="J483" t="n">
-        <v>0.7588978926780446</v>
+        <v>0.0</v>
       </c>
       <c r="K483" t="n">
-        <v>0.6633916822757774</v>
+        <v>0.0</v>
       </c>
       <c r="L483" t="n">
-        <v>0.6920324451822764</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="484">
@@ -19521,37 +19521,37 @@
         <v>511.0</v>
       </c>
       <c r="B512" t="n">
-        <v>1.1294868240365554</v>
+        <v>0.0</v>
       </c>
       <c r="C512" t="n">
-        <v>1.262196610373174</v>
+        <v>0.0</v>
       </c>
       <c r="D512" t="n">
-        <v>1.2216126399108131</v>
+        <v>0.0</v>
       </c>
       <c r="E512" t="n">
-        <v>1.2621067292471848</v>
+        <v>0.0</v>
       </c>
       <c r="F512" t="n">
-        <v>1.067116152731099</v>
+        <v>0.0</v>
       </c>
       <c r="G512" t="n">
-        <v>1.3607625223137647</v>
+        <v>0.0</v>
       </c>
       <c r="H512" t="n">
-        <v>1.1294868240365554</v>
+        <v>0.0</v>
       </c>
       <c r="I512" t="n">
-        <v>1.262196610373174</v>
+        <v>0.0</v>
       </c>
       <c r="J512" t="n">
-        <v>1.2216126399108131</v>
+        <v>0.0</v>
       </c>
       <c r="K512" t="n">
-        <v>1.2621067292471848</v>
+        <v>0.0</v>
       </c>
       <c r="L512" t="n">
-        <v>1.067116152731099</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="513">
@@ -20091,37 +20091,37 @@
         <v>526.0</v>
       </c>
       <c r="B527" t="n">
-        <v>0.3255556201760492</v>
+        <v>0.0</v>
       </c>
       <c r="C527" t="n">
-        <v>0.3748760225746976</v>
+        <v>0.0</v>
       </c>
       <c r="D527" t="n">
-        <v>0.37491252015093884</v>
+        <v>0.0</v>
       </c>
       <c r="E527" t="n">
-        <v>0.37016300086527576</v>
+        <v>0.0</v>
       </c>
       <c r="F527" t="n">
-        <v>0.38302044284379283</v>
+        <v>0.0</v>
       </c>
       <c r="G527" t="n">
-        <v>0.3213780901190172</v>
+        <v>0.0</v>
       </c>
       <c r="H527" t="n">
-        <v>0.3255556201760492</v>
+        <v>0.0</v>
       </c>
       <c r="I527" t="n">
-        <v>0.3748760225746976</v>
+        <v>0.0</v>
       </c>
       <c r="J527" t="n">
-        <v>0.37491252015093884</v>
+        <v>0.0</v>
       </c>
       <c r="K527" t="n">
-        <v>0.37016300086527576</v>
+        <v>0.0</v>
       </c>
       <c r="L527" t="n">
-        <v>0.38302044284379283</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="528">
@@ -20281,37 +20281,37 @@
         <v>531.0</v>
       </c>
       <c r="B532" t="n">
-        <v>0.3255556201760492</v>
+        <v>0.0</v>
       </c>
       <c r="C532" t="n">
-        <v>0.3748760225746976</v>
+        <v>0.0</v>
       </c>
       <c r="D532" t="n">
-        <v>0.37491252015093884</v>
+        <v>0.0</v>
       </c>
       <c r="E532" t="n">
-        <v>0.37016300086527576</v>
+        <v>0.0</v>
       </c>
       <c r="F532" t="n">
-        <v>0.38302044284379283</v>
+        <v>0.0</v>
       </c>
       <c r="G532" t="n">
-        <v>0.3213780901190172</v>
+        <v>0.0</v>
       </c>
       <c r="H532" t="n">
-        <v>0.3255556201760492</v>
+        <v>0.0</v>
       </c>
       <c r="I532" t="n">
-        <v>0.3748760225746976</v>
+        <v>0.0</v>
       </c>
       <c r="J532" t="n">
-        <v>0.37491252015093884</v>
+        <v>0.0</v>
       </c>
       <c r="K532" t="n">
-        <v>0.37016300086527576</v>
+        <v>0.0</v>
       </c>
       <c r="L532" t="n">
-        <v>0.38302044284379283</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="533">
@@ -20395,37 +20395,37 @@
         <v>534.0</v>
       </c>
       <c r="B535" t="n">
-        <v>4.729313674356571</v>
+        <v>0.0</v>
       </c>
       <c r="C535" t="n">
-        <v>5.44578618790913</v>
+        <v>0.0</v>
       </c>
       <c r="D535" t="n">
-        <v>5.44631638451979</v>
+        <v>0.0</v>
       </c>
       <c r="E535" t="n">
-        <v>5.377320596665904</v>
+        <v>0.0</v>
       </c>
       <c r="F535" t="n">
-        <v>5.564099360102287</v>
+        <v>0.0</v>
       </c>
       <c r="G535" t="n">
-        <v>4.668627116363582</v>
+        <v>0.0</v>
       </c>
       <c r="H535" t="n">
-        <v>4.729313674356571</v>
+        <v>0.0</v>
       </c>
       <c r="I535" t="n">
-        <v>5.44578618790913</v>
+        <v>0.0</v>
       </c>
       <c r="J535" t="n">
-        <v>5.44631638451979</v>
+        <v>0.0</v>
       </c>
       <c r="K535" t="n">
-        <v>5.377320596665904</v>
+        <v>0.0</v>
       </c>
       <c r="L535" t="n">
-        <v>5.564099360102287</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="536">
@@ -20661,37 +20661,37 @@
         <v>541.0</v>
       </c>
       <c r="B542" t="n">
-        <v>7.965044687070501</v>
+        <v>0.0</v>
       </c>
       <c r="C542" t="n">
-        <v>8.11223267597067</v>
+        <v>0.0</v>
       </c>
       <c r="D542" t="n">
-        <v>8.135141969230386</v>
+        <v>0.0</v>
       </c>
       <c r="E542" t="n">
-        <v>7.743457765123493</v>
+        <v>0.0</v>
       </c>
       <c r="F542" t="n">
-        <v>8.113366326404664</v>
+        <v>0.0</v>
       </c>
       <c r="G542" t="n">
-        <v>6.843534038332603</v>
+        <v>0.0</v>
       </c>
       <c r="H542" t="n">
-        <v>7.965044687070501</v>
+        <v>0.0</v>
       </c>
       <c r="I542" t="n">
-        <v>8.11223267597067</v>
+        <v>0.0</v>
       </c>
       <c r="J542" t="n">
-        <v>8.135141969230386</v>
+        <v>0.0</v>
       </c>
       <c r="K542" t="n">
-        <v>7.743457765123493</v>
+        <v>0.0</v>
       </c>
       <c r="L542" t="n">
-        <v>8.113366326404664</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="543">
@@ -21801,37 +21801,37 @@
         <v>571.0</v>
       </c>
       <c r="B572" t="n">
-        <v>1.0263564020813676</v>
+        <v>0.0</v>
       </c>
       <c r="C572" t="n">
-        <v>0.8863590318375936</v>
+        <v>0.0</v>
       </c>
       <c r="D572" t="n">
-        <v>1.0244151129737684</v>
+        <v>0.0</v>
       </c>
       <c r="E572" t="n">
-        <v>0.9584572846664197</v>
+        <v>0.0</v>
       </c>
       <c r="F572" t="n">
-        <v>0.8925099062777966</v>
+        <v>0.0</v>
       </c>
       <c r="G572" t="n">
-        <v>1.0145871006741987</v>
+        <v>0.0</v>
       </c>
       <c r="H572" t="n">
-        <v>1.0263564020813676</v>
+        <v>0.0</v>
       </c>
       <c r="I572" t="n">
-        <v>0.8863590318375936</v>
+        <v>0.0</v>
       </c>
       <c r="J572" t="n">
-        <v>1.0244151129737684</v>
+        <v>0.0</v>
       </c>
       <c r="K572" t="n">
-        <v>0.9584572846664197</v>
+        <v>0.0</v>
       </c>
       <c r="L572" t="n">
-        <v>0.8925099062777966</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="573">
@@ -21839,37 +21839,37 @@
         <v>572.0</v>
       </c>
       <c r="B573" t="n">
-        <v>0.5008819678139752</v>
+        <v>0.0</v>
       </c>
       <c r="C573" t="n">
-        <v>0.43256051714218013</v>
+        <v>0.0</v>
       </c>
       <c r="D573" t="n">
-        <v>0.499934580818251</v>
+        <v>0.0</v>
       </c>
       <c r="E573" t="n">
-        <v>0.4677458725212846</v>
+        <v>0.0</v>
       </c>
       <c r="F573" t="n">
-        <v>0.43556226398873155</v>
+        <v>0.0</v>
       </c>
       <c r="G573" t="n">
-        <v>0.49513831888591875</v>
+        <v>0.0</v>
       </c>
       <c r="H573" t="n">
-        <v>0.5008819678139752</v>
+        <v>0.0</v>
       </c>
       <c r="I573" t="n">
-        <v>0.43256051714218013</v>
+        <v>0.0</v>
       </c>
       <c r="J573" t="n">
-        <v>0.499934580818251</v>
+        <v>0.0</v>
       </c>
       <c r="K573" t="n">
-        <v>0.4677458725212846</v>
+        <v>0.0</v>
       </c>
       <c r="L573" t="n">
-        <v>0.43556226398873155</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="574">
@@ -22447,37 +22447,37 @@
         <v>588.0</v>
       </c>
       <c r="B589" t="n">
-        <v>1.2856282012414362</v>
+        <v>0.0</v>
       </c>
       <c r="C589" t="n">
-        <v>1.1208362640643763</v>
+        <v>0.0</v>
       </c>
       <c r="D589" t="n">
-        <v>1.2977413561053146</v>
+        <v>0.0</v>
       </c>
       <c r="E589" t="n">
-        <v>1.3291905898806884</v>
+        <v>0.0</v>
       </c>
       <c r="F589" t="n">
-        <v>1.316384997958662</v>
+        <v>0.0</v>
       </c>
       <c r="G589" t="n">
-        <v>1.2952162094009436</v>
+        <v>0.0</v>
       </c>
       <c r="H589" t="n">
-        <v>1.2856282012414362</v>
+        <v>0.0</v>
       </c>
       <c r="I589" t="n">
-        <v>1.1208362640643763</v>
+        <v>0.0</v>
       </c>
       <c r="J589" t="n">
-        <v>1.2977413561053146</v>
+        <v>0.0</v>
       </c>
       <c r="K589" t="n">
-        <v>1.3291905898806884</v>
+        <v>0.0</v>
       </c>
       <c r="L589" t="n">
-        <v>1.316384997958662</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="590">
